--- a/1st_round_screening/ACE/iteration_0/data/unlabeled_processed_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/unlabeled_processed_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,127 +441,102 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Drug_MW</t>
+          <t>Drug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Drug_LogP</t>
+          <t>SL_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Drug_TPSA</t>
+          <t>SL_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>SL_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SL_1</t>
+          <t>LL_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SL_2</t>
+          <t>LL_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SL_3</t>
+          <t>LL_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LL_1</t>
+          <t>P_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LL_2</t>
+          <t>P_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LL_3</t>
+          <t>P_3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P_1</t>
+          <t>S_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P_2</t>
+          <t>S_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P_3</t>
+          <t>S_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>S_1</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S_2</t>
+          <t>Solu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>S_3</t>
+          <t>Solu_STD</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Solu</t>
+          <t>Size_STD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Solu_STD</t>
+          <t>PDI</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Size_STD</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PDI</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
           <t>PDI_STD</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity_STD</t>
         </is>
       </c>
     </row>
@@ -570,1024 +545,848 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>354</v>
+        <v>0.097</v>
       </c>
       <c r="C2" t="n">
-        <v>3.91</v>
+        <v>0.119</v>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>0.101</v>
       </c>
       <c r="E2" t="n">
-        <v>0.096</v>
+        <v>0.062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.119</v>
+        <v>0.193</v>
       </c>
       <c r="G2" t="n">
-        <v>0.099</v>
+        <v>0.016</v>
       </c>
       <c r="H2" t="n">
-        <v>0.063</v>
+        <v>0.018</v>
       </c>
       <c r="I2" t="n">
-        <v>0.192</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.017</v>
+        <v>0.171</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02</v>
+        <v>0.153</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.259</v>
       </c>
       <c r="M2" t="n">
-        <v>0.17</v>
+        <v>0.259</v>
       </c>
       <c r="N2" t="n">
-        <v>0.153</v>
+        <v>0.233</v>
       </c>
       <c r="O2" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.249</v>
-      </c>
+        <v>0.248</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>354</v>
+        <v>0.167</v>
       </c>
       <c r="C3" t="n">
-        <v>3.91</v>
+        <v>0.066</v>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>0.09</v>
       </c>
       <c r="E3" t="n">
-        <v>0.166</v>
+        <v>0.151</v>
       </c>
       <c r="F3" t="n">
-        <v>0.068</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09</v>
+        <v>0.118</v>
       </c>
       <c r="H3" t="n">
-        <v>0.151</v>
+        <v>0.14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="J3" t="n">
-        <v>0.117</v>
+        <v>0.047</v>
       </c>
       <c r="K3" t="n">
-        <v>0.14</v>
+        <v>0.036</v>
       </c>
       <c r="L3" t="n">
-        <v>0.094</v>
+        <v>0.529</v>
       </c>
       <c r="M3" t="n">
-        <v>0.046</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0.037</v>
+        <v>0.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>354</v>
+        <v>0.119</v>
       </c>
       <c r="C4" t="n">
-        <v>3.91</v>
+        <v>0.18</v>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>0.028</v>
       </c>
       <c r="E4" t="n">
-        <v>0.118</v>
+        <v>0.056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.179</v>
+        <v>0.044</v>
       </c>
       <c r="G4" t="n">
-        <v>0.031</v>
+        <v>0.222</v>
       </c>
       <c r="H4" t="n">
-        <v>0.057</v>
+        <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.045</v>
+        <v>0.215</v>
       </c>
       <c r="J4" t="n">
-        <v>0.219</v>
+        <v>0.005</v>
       </c>
       <c r="K4" t="n">
-        <v>0.063</v>
+        <v>0.066</v>
       </c>
       <c r="L4" t="n">
-        <v>0.215</v>
+        <v>0.101</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006</v>
+        <v>0.19</v>
       </c>
       <c r="N4" t="n">
-        <v>0.067</v>
+        <v>0.38</v>
       </c>
       <c r="O4" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.374</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.331</v>
-      </c>
+        <v>0.329</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>3.91</v>
+        <v>0.039</v>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>0.17</v>
       </c>
       <c r="E5" t="n">
-        <v>0.016</v>
+        <v>0.139</v>
       </c>
       <c r="F5" t="n">
-        <v>0.039</v>
+        <v>0.141</v>
       </c>
       <c r="G5" t="n">
-        <v>0.169</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.14</v>
+        <v>0.116</v>
       </c>
       <c r="I5" t="n">
-        <v>0.141</v>
+        <v>0.041</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="K5" t="n">
-        <v>0.117</v>
+        <v>0.145</v>
       </c>
       <c r="L5" t="n">
-        <v>0.041</v>
+        <v>0.343</v>
       </c>
       <c r="M5" t="n">
-        <v>0.121</v>
+        <v>0.372</v>
       </c>
       <c r="N5" t="n">
-        <v>0.145</v>
+        <v>0.064</v>
       </c>
       <c r="O5" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.219</v>
-      </c>
+        <v>0.221</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354</v>
+        <v>0.048</v>
       </c>
       <c r="C6" t="n">
-        <v>3.91</v>
+        <v>0.196</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>0.158</v>
       </c>
       <c r="E6" t="n">
-        <v>0.048</v>
+        <v>0.112</v>
       </c>
       <c r="F6" t="n">
-        <v>0.196</v>
+        <v>0.114</v>
       </c>
       <c r="G6" t="n">
-        <v>0.157</v>
+        <v>0.051</v>
       </c>
       <c r="H6" t="n">
-        <v>0.111</v>
+        <v>0.103</v>
       </c>
       <c r="I6" t="n">
-        <v>0.113</v>
+        <v>0.162</v>
       </c>
       <c r="J6" t="n">
-        <v>0.051</v>
+        <v>0.046</v>
       </c>
       <c r="K6" t="n">
-        <v>0.103</v>
+        <v>0.011</v>
       </c>
       <c r="L6" t="n">
-        <v>0.162</v>
+        <v>0.046</v>
       </c>
       <c r="M6" t="n">
-        <v>0.047</v>
+        <v>0.366</v>
       </c>
       <c r="N6" t="n">
-        <v>0.012</v>
+        <v>0.464</v>
       </c>
       <c r="O6" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.122</v>
-      </c>
+        <v>0.124</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>354</v>
+        <v>0.175</v>
       </c>
       <c r="C7" t="n">
-        <v>3.91</v>
+        <v>0.025</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>0.063</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.173</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.16</v>
-      </c>
       <c r="N7" t="n">
-        <v>0.245</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.439</v>
-      </c>
+        <v>0.441</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>354</v>
+        <v>0.118</v>
       </c>
       <c r="C8" t="n">
-        <v>3.91</v>
+        <v>0.117</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>0.137</v>
       </c>
       <c r="E8" t="n">
-        <v>0.119</v>
+        <v>0.143</v>
       </c>
       <c r="F8" t="n">
-        <v>0.117</v>
+        <v>0.047</v>
       </c>
       <c r="G8" t="n">
-        <v>0.138</v>
+        <v>0.121</v>
       </c>
       <c r="H8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.142</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.122</v>
-      </c>
       <c r="K8" t="n">
-        <v>0.02</v>
+        <v>0.081</v>
       </c>
       <c r="L8" t="n">
-        <v>0.073</v>
+        <v>0.371</v>
       </c>
       <c r="M8" t="n">
-        <v>0.141</v>
+        <v>0.056</v>
       </c>
       <c r="N8" t="n">
-        <v>0.081</v>
+        <v>0.384</v>
       </c>
       <c r="O8" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R8" t="n">
         <v>0.19</v>
       </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>354</v>
+        <v>0.068</v>
       </c>
       <c r="C9" t="n">
-        <v>3.91</v>
+        <v>0.058</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>0.024</v>
       </c>
       <c r="E9" t="n">
-        <v>0.068</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.057</v>
+        <v>0.155</v>
       </c>
       <c r="G9" t="n">
-        <v>0.024</v>
+        <v>0.091</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.199</v>
       </c>
       <c r="I9" t="n">
-        <v>0.155</v>
+        <v>0.131</v>
       </c>
       <c r="J9" t="n">
-        <v>0.091</v>
+        <v>0.099</v>
       </c>
       <c r="K9" t="n">
-        <v>0.198</v>
+        <v>0.089</v>
       </c>
       <c r="L9" t="n">
-        <v>0.131</v>
+        <v>0.169</v>
       </c>
       <c r="M9" t="n">
-        <v>0.099</v>
+        <v>0.36</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09</v>
+        <v>0.178</v>
       </c>
       <c r="O9" t="n">
-        <v>0.168</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.295</v>
-      </c>
+        <v>0.293</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>354</v>
+        <v>0.057</v>
       </c>
       <c r="C10" t="n">
-        <v>3.91</v>
+        <v>0.165</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>0.199</v>
       </c>
       <c r="E10" t="n">
-        <v>0.055</v>
+        <v>0.018</v>
       </c>
       <c r="F10" t="n">
-        <v>0.165</v>
+        <v>0.077</v>
       </c>
       <c r="G10" t="n">
-        <v>0.198</v>
+        <v>0.061</v>
       </c>
       <c r="H10" t="n">
-        <v>0.021</v>
+        <v>0.081</v>
       </c>
       <c r="I10" t="n">
-        <v>0.078</v>
+        <v>0.173</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06</v>
+        <v>0.028</v>
       </c>
       <c r="K10" t="n">
-        <v>0.082</v>
+        <v>0.14</v>
       </c>
       <c r="L10" t="n">
-        <v>0.173</v>
+        <v>0.249</v>
       </c>
       <c r="M10" t="n">
-        <v>0.028</v>
+        <v>0.487</v>
       </c>
       <c r="N10" t="n">
-        <v>0.139</v>
+        <v>0.073</v>
       </c>
       <c r="O10" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.193</v>
-      </c>
+        <v>0.192</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>354</v>
+        <v>0.155</v>
       </c>
       <c r="C11" t="n">
-        <v>3.91</v>
+        <v>0.028</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>0.004</v>
       </c>
       <c r="E11" t="n">
-        <v>0.154</v>
+        <v>0.114</v>
       </c>
       <c r="F11" t="n">
-        <v>0.029</v>
+        <v>0.172</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003</v>
+        <v>0.187</v>
       </c>
       <c r="H11" t="n">
-        <v>0.115</v>
+        <v>0.136</v>
       </c>
       <c r="I11" t="n">
-        <v>0.171</v>
+        <v>0.002</v>
       </c>
       <c r="J11" t="n">
-        <v>0.186</v>
+        <v>0.136</v>
       </c>
       <c r="K11" t="n">
-        <v>0.136</v>
+        <v>0.065</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004</v>
+        <v>0.344</v>
       </c>
       <c r="M11" t="n">
-        <v>0.137</v>
+        <v>0.049</v>
       </c>
       <c r="N11" t="n">
-        <v>0.065</v>
+        <v>0.281</v>
       </c>
       <c r="O11" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.323</v>
-      </c>
+        <v>0.326</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>354</v>
+        <v>0.135</v>
       </c>
       <c r="C12" t="n">
-        <v>3.91</v>
+        <v>0.093</v>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>0.118</v>
       </c>
       <c r="E12" t="n">
-        <v>0.135</v>
+        <v>0.082</v>
       </c>
       <c r="F12" t="n">
-        <v>0.094</v>
+        <v>0.12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.118</v>
+        <v>0.129</v>
       </c>
       <c r="H12" t="n">
-        <v>0.083</v>
+        <v>0.042</v>
       </c>
       <c r="I12" t="n">
-        <v>0.119</v>
+        <v>0.075</v>
       </c>
       <c r="J12" t="n">
-        <v>0.13</v>
+        <v>0.182</v>
       </c>
       <c r="K12" t="n">
-        <v>0.042</v>
+        <v>0.025</v>
       </c>
       <c r="L12" t="n">
-        <v>0.075</v>
+        <v>0.4</v>
       </c>
       <c r="M12" t="n">
-        <v>0.18</v>
+        <v>0.206</v>
       </c>
       <c r="N12" t="n">
-        <v>0.026</v>
+        <v>0.257</v>
       </c>
       <c r="O12" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.141</v>
-      </c>
+        <v>0.137</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>354</v>
+        <v>0.032</v>
       </c>
       <c r="C13" t="n">
-        <v>3.91</v>
+        <v>0.093</v>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.033</v>
+        <v>0.194</v>
       </c>
       <c r="F13" t="n">
-        <v>0.093</v>
+        <v>0.034</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="H13" t="n">
-        <v>0.192</v>
+        <v>0.182</v>
       </c>
       <c r="I13" t="n">
-        <v>0.036</v>
+        <v>0.145</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004</v>
+        <v>0.079</v>
       </c>
       <c r="K13" t="n">
-        <v>0.181</v>
+        <v>0.168</v>
       </c>
       <c r="L13" t="n">
-        <v>0.144</v>
+        <v>0.019</v>
       </c>
       <c r="M13" t="n">
-        <v>0.079</v>
+        <v>0.263</v>
       </c>
       <c r="N13" t="n">
-        <v>0.167</v>
+        <v>0.374</v>
       </c>
       <c r="O13" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.345</v>
-      </c>
+        <v>0.344</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>354</v>
+        <v>0.008</v>
       </c>
       <c r="C14" t="n">
-        <v>3.91</v>
+        <v>0.183</v>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>0.06</v>
       </c>
       <c r="E14" t="n">
-        <v>0.007</v>
+        <v>0.219</v>
       </c>
       <c r="F14" t="n">
-        <v>0.182</v>
+        <v>0.033</v>
       </c>
       <c r="G14" t="n">
-        <v>0.062</v>
+        <v>0.107</v>
       </c>
       <c r="H14" t="n">
-        <v>0.217</v>
+        <v>0.003</v>
       </c>
       <c r="I14" t="n">
-        <v>0.034</v>
+        <v>0.074</v>
       </c>
       <c r="J14" t="n">
-        <v>0.106</v>
+        <v>0.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003</v>
+        <v>0.104</v>
       </c>
       <c r="L14" t="n">
-        <v>0.076</v>
+        <v>0.262</v>
       </c>
       <c r="M14" t="n">
-        <v>0.208</v>
+        <v>0.29</v>
       </c>
       <c r="N14" t="n">
-        <v>0.106</v>
+        <v>0.173</v>
       </c>
       <c r="O14" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.274</v>
-      </c>
+        <v>0.276</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354</v>
+        <v>0.099</v>
       </c>
       <c r="C15" t="n">
-        <v>3.91</v>
+        <v>0.063</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>0.132</v>
       </c>
       <c r="E15" t="n">
-        <v>0.098</v>
+        <v>0.05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.063</v>
+        <v>0.099</v>
       </c>
       <c r="G15" t="n">
-        <v>0.132</v>
+        <v>0.144</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.149</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
       <c r="J15" t="n">
-        <v>0.144</v>
+        <v>0.06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.148</v>
+        <v>0.101</v>
       </c>
       <c r="L15" t="n">
-        <v>0.103</v>
+        <v>0.11</v>
       </c>
       <c r="M15" t="n">
-        <v>0.061</v>
+        <v>0.247</v>
       </c>
       <c r="N15" t="n">
-        <v>0.101</v>
+        <v>0.473</v>
       </c>
       <c r="O15" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.171</v>
-      </c>
+        <v>0.17</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354</v>
+        <v>0.146</v>
       </c>
       <c r="C16" t="n">
-        <v>3.91</v>
+        <v>0.143</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>0.059</v>
       </c>
       <c r="E16" t="n">
-        <v>0.146</v>
+        <v>0.092</v>
       </c>
       <c r="F16" t="n">
-        <v>0.143</v>
+        <v>0.126</v>
       </c>
       <c r="G16" t="n">
-        <v>0.058</v>
+        <v>0.091</v>
       </c>
       <c r="H16" t="n">
-        <v>0.093</v>
+        <v>0.054</v>
       </c>
       <c r="I16" t="n">
-        <v>0.125</v>
+        <v>0.139</v>
       </c>
       <c r="J16" t="n">
-        <v>0.091</v>
+        <v>0.016</v>
       </c>
       <c r="K16" t="n">
-        <v>0.055</v>
+        <v>0.133</v>
       </c>
       <c r="L16" t="n">
-        <v>0.14</v>
+        <v>0.215</v>
       </c>
       <c r="M16" t="n">
-        <v>0.017</v>
+        <v>0.154</v>
       </c>
       <c r="N16" t="n">
-        <v>0.133</v>
+        <v>0.023</v>
       </c>
       <c r="O16" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.6</v>
-      </c>
+        <v>0.608</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>354</v>
+        <v>0.137</v>
       </c>
       <c r="C17" t="n">
-        <v>3.91</v>
+        <v>0.017</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>0.203</v>
       </c>
       <c r="E17" t="n">
-        <v>0.137</v>
+        <v>0.047</v>
       </c>
       <c r="F17" t="n">
-        <v>0.019</v>
+        <v>0.107</v>
       </c>
       <c r="G17" t="n">
-        <v>0.201</v>
+        <v>0.06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.047</v>
+        <v>0.167</v>
       </c>
       <c r="I17" t="n">
-        <v>0.105</v>
+        <v>0.053</v>
       </c>
       <c r="J17" t="n">
-        <v>0.058</v>
+        <v>0.173</v>
       </c>
       <c r="K17" t="n">
-        <v>0.167</v>
+        <v>0.037</v>
       </c>
       <c r="L17" t="n">
-        <v>0.055</v>
+        <v>0.398</v>
       </c>
       <c r="M17" t="n">
-        <v>0.171</v>
+        <v>0.353</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04</v>
+        <v>0.225</v>
       </c>
       <c r="O17" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.026</v>
-      </c>
+        <v>0.024</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/1st_round_screening/ACE/iteration_0/data/unlabeled_processed_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/unlabeled_processed_0.xlsx
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.118</v>
+        <v>0.119</v>
       </c>
       <c r="D2" t="n">
-        <v>0.098</v>
+        <v>0.099</v>
       </c>
       <c r="E2" t="n">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
       <c r="F2" t="n">
         <v>0.193</v>
@@ -563,7 +563,7 @@
         <v>0.016</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="I2" t="n">
         <v>0.07000000000000001</v>
@@ -572,19 +572,19 @@
         <v>0.171</v>
       </c>
       <c r="K2" t="n">
-        <v>0.153</v>
+        <v>0.155</v>
       </c>
       <c r="L2" t="n">
         <v>0.257</v>
       </c>
       <c r="M2" t="n">
-        <v>0.257</v>
+        <v>0.259</v>
       </c>
       <c r="N2" t="n">
-        <v>0.234</v>
+        <v>0.236</v>
       </c>
       <c r="O2" t="n">
-        <v>0.251</v>
+        <v>0.248</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.169</v>
+        <v>0.168</v>
       </c>
       <c r="C3" t="n">
         <v>0.066</v>
@@ -607,13 +607,13 @@
         <v>0.09</v>
       </c>
       <c r="E3" t="n">
-        <v>0.153</v>
+        <v>0.151</v>
       </c>
       <c r="F3" t="n">
         <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="H3" t="n">
         <v>0.14</v>
@@ -622,19 +622,19 @@
         <v>0.095</v>
       </c>
       <c r="J3" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="K3" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="L3" t="n">
-        <v>0.522</v>
+        <v>0.514</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0.406</v>
+        <v>0.414</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -651,46 +651,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18</v>
+        <v>0.181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="E4" t="n">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.22</v>
+        <v>0.221</v>
       </c>
       <c r="H4" t="n">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
       <c r="I4" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K4" t="n">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
       <c r="L4" t="n">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.195</v>
+        <v>0.194</v>
       </c>
       <c r="N4" t="n">
-        <v>0.371</v>
+        <v>0.375</v>
       </c>
       <c r="O4" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -704,46 +704,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>0.039</v>
       </c>
       <c r="D5" t="n">
-        <v>0.169</v>
+        <v>0.17</v>
       </c>
       <c r="E5" t="n">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="F5" t="n">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.117</v>
+        <v>0.118</v>
       </c>
       <c r="I5" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="J5" t="n">
         <v>0.121</v>
       </c>
       <c r="K5" t="n">
-        <v>0.146</v>
+        <v>0.145</v>
       </c>
       <c r="L5" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="M5" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="N5" t="n">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
       <c r="O5" t="n">
-        <v>0.219</v>
+        <v>0.216</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -757,22 +757,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
       <c r="C6" t="n">
-        <v>0.198</v>
+        <v>0.196</v>
       </c>
       <c r="D6" t="n">
         <v>0.158</v>
       </c>
       <c r="E6" t="n">
-        <v>0.109</v>
+        <v>0.112</v>
       </c>
       <c r="F6" t="n">
-        <v>0.112</v>
+        <v>0.114</v>
       </c>
       <c r="G6" t="n">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
       <c r="H6" t="n">
         <v>0.103</v>
@@ -781,16 +781,16 @@
         <v>0.162</v>
       </c>
       <c r="J6" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="K6" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="L6" t="n">
-        <v>0.046</v>
+        <v>0.053</v>
       </c>
       <c r="M6" t="n">
-        <v>0.368</v>
+        <v>0.362</v>
       </c>
       <c r="N6" t="n">
         <v>0.467</v>
@@ -816,19 +816,19 @@
         <v>0.025</v>
       </c>
       <c r="D7" t="n">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0.142</v>
       </c>
       <c r="H7" t="n">
-        <v>0.16</v>
+        <v>0.163</v>
       </c>
       <c r="I7" t="n">
         <v>0.025</v>
@@ -837,19 +837,19 @@
         <v>0.16</v>
       </c>
       <c r="K7" t="n">
-        <v>0.249</v>
+        <v>0.247</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3</v>
+        <v>0.301</v>
       </c>
       <c r="M7" t="n">
-        <v>0.173</v>
+        <v>0.174</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.082</v>
       </c>
       <c r="O7" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -863,25 +863,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="C8" t="n">
         <v>0.117</v>
       </c>
       <c r="D8" t="n">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="E8" t="n">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="G8" t="n">
-        <v>0.123</v>
+        <v>0.121</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="I8" t="n">
         <v>0.073</v>
@@ -916,13 +916,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C9" t="n">
         <v>0.058</v>
       </c>
       <c r="D9" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="E9" t="n">
         <v>0.08500000000000001</v>
@@ -934,25 +934,25 @@
         <v>0.091</v>
       </c>
       <c r="H9" t="n">
-        <v>0.199</v>
+        <v>0.198</v>
       </c>
       <c r="I9" t="n">
         <v>0.131</v>
       </c>
       <c r="J9" t="n">
-        <v>0.097</v>
+        <v>0.099</v>
       </c>
       <c r="K9" t="n">
-        <v>0.091</v>
+        <v>0.089</v>
       </c>
       <c r="L9" t="n">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="M9" t="n">
         <v>0.362</v>
       </c>
       <c r="N9" t="n">
-        <v>0.174</v>
+        <v>0.179</v>
       </c>
       <c r="O9" t="n">
         <v>0.295</v>
@@ -969,13 +969,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.057</v>
+        <v>0.055</v>
       </c>
       <c r="C10" t="n">
-        <v>0.166</v>
+        <v>0.167</v>
       </c>
       <c r="D10" t="n">
-        <v>0.198</v>
+        <v>0.199</v>
       </c>
       <c r="E10" t="n">
         <v>0.02</v>
@@ -984,19 +984,19 @@
         <v>0.077</v>
       </c>
       <c r="G10" t="n">
-        <v>0.061</v>
+        <v>0.059</v>
       </c>
       <c r="H10" t="n">
         <v>0.081</v>
       </c>
       <c r="I10" t="n">
-        <v>0.174</v>
+        <v>0.175</v>
       </c>
       <c r="J10" t="n">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="K10" t="n">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="L10" t="n">
         <v>0.244</v>
@@ -1022,13 +1022,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.153</v>
+        <v>0.155</v>
       </c>
       <c r="C11" t="n">
         <v>0.028</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="E11" t="n">
         <v>0.116</v>
@@ -1046,22 +1046,22 @@
         <v>0.002</v>
       </c>
       <c r="J11" t="n">
-        <v>0.138</v>
+        <v>0.136</v>
       </c>
       <c r="K11" t="n">
         <v>0.065</v>
       </c>
       <c r="L11" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="M11" t="n">
         <v>0.049</v>
       </c>
       <c r="N11" t="n">
-        <v>0.283</v>
+        <v>0.284</v>
       </c>
       <c r="O11" t="n">
-        <v>0.323</v>
+        <v>0.324</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1075,13 +1075,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.135</v>
+        <v>0.137</v>
       </c>
       <c r="C12" t="n">
         <v>0.093</v>
       </c>
       <c r="D12" t="n">
-        <v>0.117</v>
+        <v>0.119</v>
       </c>
       <c r="E12" t="n">
         <v>0.082</v>
@@ -1090,7 +1090,7 @@
         <v>0.119</v>
       </c>
       <c r="G12" t="n">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="H12" t="n">
         <v>0.04</v>
@@ -1102,19 +1102,19 @@
         <v>0.181</v>
       </c>
       <c r="K12" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4</v>
+        <v>0.398</v>
       </c>
       <c r="M12" t="n">
-        <v>0.206</v>
+        <v>0.205</v>
       </c>
       <c r="N12" t="n">
-        <v>0.257</v>
+        <v>0.256</v>
       </c>
       <c r="O12" t="n">
-        <v>0.137</v>
+        <v>0.142</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
         <v>0.034</v>
       </c>
       <c r="C13" t="n">
-        <v>0.091</v>
+        <v>0.093</v>
       </c>
       <c r="D13" t="n">
         <v>0.073</v>
@@ -1146,28 +1146,28 @@
         <v>0.004</v>
       </c>
       <c r="H13" t="n">
-        <v>0.18</v>
+        <v>0.179</v>
       </c>
       <c r="I13" t="n">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="J13" t="n">
         <v>0.079</v>
       </c>
       <c r="K13" t="n">
-        <v>0.168</v>
+        <v>0.167</v>
       </c>
       <c r="L13" t="n">
         <v>0.019</v>
       </c>
       <c r="M13" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
       <c r="N13" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O13" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1190,37 +1190,37 @@
         <v>0.06</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="F14" t="n">
         <v>0.033</v>
       </c>
       <c r="G14" t="n">
-        <v>0.107</v>
+        <v>0.106</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.077</v>
+        <v>0.076</v>
       </c>
       <c r="J14" t="n">
         <v>0.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="L14" t="n">
-        <v>0.263</v>
+        <v>0.26</v>
       </c>
       <c r="M14" t="n">
-        <v>0.291</v>
+        <v>0.288</v>
       </c>
       <c r="N14" t="n">
-        <v>0.174</v>
+        <v>0.177</v>
       </c>
       <c r="O14" t="n">
-        <v>0.272</v>
+        <v>0.274</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
       <c r="C15" t="n">
         <v>0.062</v>
@@ -1246,7 +1246,7 @@
         <v>0.05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
       <c r="G15" t="n">
         <v>0.144</v>
@@ -1261,7 +1261,7 @@
         <v>0.06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="L15" t="n">
         <v>0.11</v>
@@ -1296,19 +1296,19 @@
         <v>0.058</v>
       </c>
       <c r="E16" t="n">
-        <v>0.094</v>
+        <v>0.092</v>
       </c>
       <c r="F16" t="n">
-        <v>0.124</v>
+        <v>0.126</v>
       </c>
       <c r="G16" t="n">
-        <v>0.092</v>
+        <v>0.091</v>
       </c>
       <c r="H16" t="n">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="I16" t="n">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="J16" t="n">
         <v>0.016</v>
@@ -1317,16 +1317,16 @@
         <v>0.133</v>
       </c>
       <c r="L16" t="n">
-        <v>0.214</v>
+        <v>0.208</v>
       </c>
       <c r="M16" t="n">
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
       <c r="N16" t="n">
         <v>0.031</v>
       </c>
       <c r="O16" t="n">
-        <v>0.603</v>
+        <v>0.608</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1355,28 +1355,28 @@
         <v>0.106</v>
       </c>
       <c r="G17" t="n">
-        <v>0.056</v>
+        <v>0.06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.169</v>
+        <v>0.166</v>
       </c>
       <c r="I17" t="n">
         <v>0.056</v>
       </c>
       <c r="J17" t="n">
-        <v>0.169</v>
+        <v>0.172</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="L17" t="n">
-        <v>0.399</v>
+        <v>0.398</v>
       </c>
       <c r="M17" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="N17" t="n">
-        <v>0.222</v>
+        <v>0.225</v>
       </c>
       <c r="O17" t="n">
         <v>0.024</v>

--- a/1st_round_screening/ACE/iteration_0/data/unlabeled_processed_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/unlabeled_processed_0.xlsx
@@ -545,40 +545,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.062</v>
+        <v>0.064</v>
       </c>
       <c r="F2" t="n">
-        <v>0.193</v>
+        <v>0.192</v>
       </c>
       <c r="G2" t="n">
         <v>0.016</v>
       </c>
       <c r="H2" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="J2" t="n">
-        <v>0.171</v>
+        <v>0.17</v>
       </c>
       <c r="K2" t="n">
-        <v>0.155</v>
+        <v>0.152</v>
       </c>
       <c r="L2" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.257</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.259</v>
       </c>
       <c r="N2" t="n">
         <v>0.236</v>
@@ -598,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.168</v>
+        <v>0.167</v>
       </c>
       <c r="C3" t="n">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
       <c r="D3" t="n">
         <v>0.09</v>
@@ -613,7 +613,7 @@
         <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.116</v>
+        <v>0.117</v>
       </c>
       <c r="H3" t="n">
         <v>0.14</v>
@@ -625,16 +625,16 @@
         <v>0.047</v>
       </c>
       <c r="K3" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="L3" t="n">
-        <v>0.514</v>
+        <v>0.522</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.058</v>
       </c>
       <c r="N3" t="n">
-        <v>0.414</v>
+        <v>0.42</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -651,46 +651,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="C4" t="n">
-        <v>0.181</v>
+        <v>0.18</v>
       </c>
       <c r="D4" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="E4" t="n">
         <v>0.056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="G4" t="n">
-        <v>0.221</v>
+        <v>0.22</v>
       </c>
       <c r="H4" t="n">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.216</v>
+        <v>0.215</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="K4" t="n">
-        <v>0.066</v>
+        <v>0.065</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="M4" t="n">
-        <v>0.194</v>
+        <v>0.19</v>
       </c>
       <c r="N4" t="n">
-        <v>0.375</v>
+        <v>0.373</v>
       </c>
       <c r="O4" t="n">
-        <v>0.331</v>
+        <v>0.335</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -707,10 +707,10 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17</v>
+        <v>0.171</v>
       </c>
       <c r="E5" t="n">
         <v>0.141</v>
@@ -719,31 +719,31 @@
         <v>0.141</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.118</v>
+        <v>0.116</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="J5" t="n">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="K5" t="n">
         <v>0.145</v>
       </c>
       <c r="L5" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="M5" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="N5" t="n">
-        <v>0.064</v>
+        <v>0.065</v>
       </c>
       <c r="O5" t="n">
-        <v>0.216</v>
+        <v>0.219</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -769,10 +769,10 @@
         <v>0.112</v>
       </c>
       <c r="F6" t="n">
-        <v>0.114</v>
+        <v>0.112</v>
       </c>
       <c r="G6" t="n">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
       <c r="H6" t="n">
         <v>0.103</v>
@@ -787,13 +787,13 @@
         <v>0.011</v>
       </c>
       <c r="L6" t="n">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="M6" t="n">
-        <v>0.362</v>
+        <v>0.366</v>
       </c>
       <c r="N6" t="n">
-        <v>0.467</v>
+        <v>0.464</v>
       </c>
       <c r="O6" t="n">
         <v>0.118</v>
@@ -810,13 +810,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.173</v>
+        <v>0.176</v>
       </c>
       <c r="C7" t="n">
         <v>0.025</v>
       </c>
       <c r="D7" t="n">
-        <v>0.064</v>
+        <v>0.061</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -840,16 +840,16 @@
         <v>0.247</v>
       </c>
       <c r="L7" t="n">
-        <v>0.301</v>
+        <v>0.3</v>
       </c>
       <c r="M7" t="n">
-        <v>0.174</v>
+        <v>0.173</v>
       </c>
       <c r="N7" t="n">
-        <v>0.082</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -863,22 +863,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="C8" t="n">
         <v>0.117</v>
       </c>
       <c r="D8" t="n">
-        <v>0.138</v>
+        <v>0.139</v>
       </c>
       <c r="E8" t="n">
-        <v>0.143</v>
+        <v>0.142</v>
       </c>
       <c r="F8" t="n">
         <v>0.047</v>
       </c>
       <c r="G8" t="n">
-        <v>0.121</v>
+        <v>0.123</v>
       </c>
       <c r="H8" t="n">
         <v>0.019</v>
@@ -887,19 +887,19 @@
         <v>0.073</v>
       </c>
       <c r="J8" t="n">
-        <v>0.142</v>
+        <v>0.14</v>
       </c>
       <c r="K8" t="n">
         <v>0.081</v>
       </c>
       <c r="L8" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="M8" t="n">
         <v>0.056</v>
       </c>
       <c r="N8" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="O8" t="n">
         <v>0.19</v>
@@ -928,10 +928,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.155</v>
+        <v>0.157</v>
       </c>
       <c r="G9" t="n">
-        <v>0.091</v>
+        <v>0.089</v>
       </c>
       <c r="H9" t="n">
         <v>0.198</v>
@@ -946,16 +946,16 @@
         <v>0.089</v>
       </c>
       <c r="L9" t="n">
-        <v>0.165</v>
+        <v>0.166</v>
       </c>
       <c r="M9" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="N9" t="n">
-        <v>0.179</v>
+        <v>0.175</v>
       </c>
       <c r="O9" t="n">
-        <v>0.295</v>
+        <v>0.296</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -969,13 +969,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.055</v>
+        <v>0.057</v>
       </c>
       <c r="C10" t="n">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
       <c r="D10" t="n">
-        <v>0.199</v>
+        <v>0.198</v>
       </c>
       <c r="E10" t="n">
         <v>0.02</v>
@@ -987,28 +987,28 @@
         <v>0.059</v>
       </c>
       <c r="H10" t="n">
-        <v>0.081</v>
+        <v>0.083</v>
       </c>
       <c r="I10" t="n">
-        <v>0.175</v>
+        <v>0.174</v>
       </c>
       <c r="J10" t="n">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="K10" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="L10" t="n">
-        <v>0.244</v>
+        <v>0.245</v>
       </c>
       <c r="M10" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="N10" t="n">
-        <v>0.073</v>
+        <v>0.077</v>
       </c>
       <c r="O10" t="n">
-        <v>0.197</v>
+        <v>0.194</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1028,34 +1028,34 @@
         <v>0.028</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E11" t="n">
-        <v>0.116</v>
+        <v>0.114</v>
       </c>
       <c r="F11" t="n">
         <v>0.172</v>
       </c>
       <c r="G11" t="n">
-        <v>0.187</v>
+        <v>0.185</v>
       </c>
       <c r="H11" t="n">
-        <v>0.136</v>
+        <v>0.137</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="J11" t="n">
-        <v>0.136</v>
+        <v>0.137</v>
       </c>
       <c r="K11" t="n">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
       <c r="L11" t="n">
-        <v>0.342</v>
+        <v>0.347</v>
       </c>
       <c r="M11" t="n">
-        <v>0.049</v>
+        <v>0.044</v>
       </c>
       <c r="N11" t="n">
         <v>0.284</v>
@@ -1075,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.137</v>
+        <v>0.135</v>
       </c>
       <c r="C12" t="n">
         <v>0.093</v>
@@ -1099,10 +1099,10 @@
         <v>0.075</v>
       </c>
       <c r="J12" t="n">
-        <v>0.181</v>
+        <v>0.182</v>
       </c>
       <c r="K12" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="L12" t="n">
         <v>0.398</v>
@@ -1140,34 +1140,34 @@
         <v>0.192</v>
       </c>
       <c r="F13" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="H13" t="n">
-        <v>0.179</v>
+        <v>0.18</v>
       </c>
       <c r="I13" t="n">
-        <v>0.145</v>
+        <v>0.143</v>
       </c>
       <c r="J13" t="n">
         <v>0.079</v>
       </c>
       <c r="K13" t="n">
-        <v>0.167</v>
+        <v>0.168</v>
       </c>
       <c r="L13" t="n">
         <v>0.019</v>
       </c>
       <c r="M13" t="n">
-        <v>0.263</v>
+        <v>0.264</v>
       </c>
       <c r="N13" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O13" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1181,16 +1181,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.183</v>
+        <v>0.182</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
       <c r="E14" t="n">
-        <v>0.218</v>
+        <v>0.217</v>
       </c>
       <c r="F14" t="n">
         <v>0.033</v>
@@ -1199,25 +1199,25 @@
         <v>0.106</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I14" t="n">
         <v>0.076</v>
       </c>
       <c r="J14" t="n">
-        <v>0.21</v>
+        <v>0.206</v>
       </c>
       <c r="K14" t="n">
         <v>0.106</v>
       </c>
       <c r="L14" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="M14" t="n">
         <v>0.288</v>
       </c>
       <c r="N14" t="n">
-        <v>0.177</v>
+        <v>0.172</v>
       </c>
       <c r="O14" t="n">
         <v>0.274</v>
@@ -1237,7 +1237,7 @@
         <v>0.099</v>
       </c>
       <c r="C15" t="n">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="D15" t="n">
         <v>0.132</v>
@@ -1317,16 +1317,16 @@
         <v>0.133</v>
       </c>
       <c r="L16" t="n">
-        <v>0.208</v>
+        <v>0.214</v>
       </c>
       <c r="M16" t="n">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="N16" t="n">
         <v>0.031</v>
       </c>
       <c r="O16" t="n">
-        <v>0.608</v>
+        <v>0.603</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1340,34 +1340,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="C17" t="n">
         <v>0.017</v>
       </c>
       <c r="D17" t="n">
-        <v>0.202</v>
+        <v>0.203</v>
       </c>
       <c r="E17" t="n">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="F17" t="n">
-        <v>0.106</v>
+        <v>0.103</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06</v>
+        <v>0.056</v>
       </c>
       <c r="H17" t="n">
-        <v>0.166</v>
+        <v>0.169</v>
       </c>
       <c r="I17" t="n">
         <v>0.056</v>
       </c>
       <c r="J17" t="n">
-        <v>0.172</v>
+        <v>0.169</v>
       </c>
       <c r="K17" t="n">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
       <c r="L17" t="n">
         <v>0.398</v>

--- a/1st_round_screening/ACE/iteration_0/data/unlabeled_processed_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/unlabeled_processed_0.xlsx
@@ -548,16 +548,16 @@
         <v>0.096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.098</v>
       </c>
       <c r="E2" t="n">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.192</v>
+        <v>0.193</v>
       </c>
       <c r="G2" t="n">
         <v>0.016</v>
@@ -566,25 +566,25 @@
         <v>0.02</v>
       </c>
       <c r="I2" t="n">
-        <v>0.068</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="K2" t="n">
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="L2" t="n">
-        <v>0.259</v>
+        <v>0.257</v>
       </c>
       <c r="M2" t="n">
         <v>0.257</v>
       </c>
       <c r="N2" t="n">
-        <v>0.236</v>
+        <v>0.237</v>
       </c>
       <c r="O2" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.167</v>
+        <v>0.168</v>
       </c>
       <c r="C3" t="n">
         <v>0.068</v>
@@ -610,31 +610,31 @@
         <v>0.151</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.117</v>
+        <v>0.119</v>
       </c>
       <c r="H3" t="n">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="I3" t="n">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="J3" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="K3" t="n">
         <v>0.036</v>
       </c>
       <c r="L3" t="n">
-        <v>0.522</v>
+        <v>0.514</v>
       </c>
       <c r="M3" t="n">
-        <v>0.058</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0.42</v>
+        <v>0.414</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0.22</v>
       </c>
       <c r="H4" t="n">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
       <c r="I4" t="n">
         <v>0.215</v>
@@ -678,19 +678,19 @@
         <v>0.005</v>
       </c>
       <c r="K4" t="n">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
       <c r="L4" t="n">
         <v>0.101</v>
       </c>
       <c r="M4" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="N4" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O4" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -707,13 +707,13 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="D5" t="n">
-        <v>0.171</v>
+        <v>0.17</v>
       </c>
       <c r="E5" t="n">
-        <v>0.141</v>
+        <v>0.139</v>
       </c>
       <c r="F5" t="n">
         <v>0.141</v>
@@ -722,7 +722,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.116</v>
+        <v>0.118</v>
       </c>
       <c r="I5" t="n">
         <v>0.039</v>
@@ -734,16 +734,16 @@
         <v>0.145</v>
       </c>
       <c r="L5" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="M5" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="N5" t="n">
         <v>0.065</v>
       </c>
       <c r="O5" t="n">
-        <v>0.219</v>
+        <v>0.224</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -757,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="C6" t="n">
         <v>0.196</v>
@@ -766,10 +766,10 @@
         <v>0.158</v>
       </c>
       <c r="E6" t="n">
-        <v>0.112</v>
+        <v>0.109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.112</v>
+        <v>0.114</v>
       </c>
       <c r="G6" t="n">
         <v>0.051</v>
@@ -784,19 +784,19 @@
         <v>0.046</v>
       </c>
       <c r="K6" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="L6" t="n">
         <v>0.052</v>
       </c>
       <c r="M6" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="N6" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="O6" t="n">
-        <v>0.118</v>
+        <v>0.123</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -810,46 +810,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176</v>
+        <v>0.175</v>
       </c>
       <c r="C7" t="n">
         <v>0.025</v>
       </c>
       <c r="D7" t="n">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G7" t="n">
         <v>0.142</v>
       </c>
       <c r="H7" t="n">
-        <v>0.163</v>
+        <v>0.159</v>
       </c>
       <c r="I7" t="n">
         <v>0.025</v>
       </c>
       <c r="J7" t="n">
-        <v>0.16</v>
+        <v>0.159</v>
       </c>
       <c r="K7" t="n">
-        <v>0.247</v>
+        <v>0.248</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3</v>
+        <v>0.301</v>
       </c>
       <c r="M7" t="n">
-        <v>0.173</v>
+        <v>0.174</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.082</v>
       </c>
       <c r="O7" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -866,40 +866,40 @@
         <v>0.119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="D8" t="n">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="E8" t="n">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
       <c r="F8" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
       <c r="H8" t="n">
         <v>0.019</v>
       </c>
       <c r="I8" t="n">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="J8" t="n">
-        <v>0.14</v>
+        <v>0.143</v>
       </c>
       <c r="K8" t="n">
-        <v>0.081</v>
+        <v>0.082</v>
       </c>
       <c r="L8" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="M8" t="n">
         <v>0.056</v>
       </c>
       <c r="N8" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O8" t="n">
         <v>0.19</v>
@@ -919,7 +919,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
       <c r="D9" t="n">
         <v>0.024</v>
@@ -928,10 +928,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.157</v>
+        <v>0.155</v>
       </c>
       <c r="G9" t="n">
-        <v>0.089</v>
+        <v>0.091</v>
       </c>
       <c r="H9" t="n">
         <v>0.198</v>
@@ -943,19 +943,19 @@
         <v>0.099</v>
       </c>
       <c r="K9" t="n">
-        <v>0.089</v>
+        <v>0.091</v>
       </c>
       <c r="L9" t="n">
-        <v>0.166</v>
+        <v>0.169</v>
       </c>
       <c r="M9" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="N9" t="n">
-        <v>0.175</v>
+        <v>0.173</v>
       </c>
       <c r="O9" t="n">
-        <v>0.296</v>
+        <v>0.298</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -969,10 +969,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="C10" t="n">
-        <v>0.166</v>
+        <v>0.165</v>
       </c>
       <c r="D10" t="n">
         <v>0.198</v>
@@ -984,13 +984,13 @@
         <v>0.077</v>
       </c>
       <c r="G10" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="H10" t="n">
         <v>0.083</v>
       </c>
       <c r="I10" t="n">
-        <v>0.174</v>
+        <v>0.173</v>
       </c>
       <c r="J10" t="n">
         <v>0.028</v>
@@ -999,7 +999,7 @@
         <v>0.139</v>
       </c>
       <c r="L10" t="n">
-        <v>0.245</v>
+        <v>0.247</v>
       </c>
       <c r="M10" t="n">
         <v>0.485</v>
@@ -1008,7 +1008,7 @@
         <v>0.077</v>
       </c>
       <c r="O10" t="n">
-        <v>0.194</v>
+        <v>0.191</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1025,43 +1025,43 @@
         <v>0.155</v>
       </c>
       <c r="C11" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="D11" t="n">
         <v>0.004</v>
       </c>
       <c r="E11" t="n">
-        <v>0.114</v>
+        <v>0.116</v>
       </c>
       <c r="F11" t="n">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="G11" t="n">
         <v>0.185</v>
       </c>
       <c r="H11" t="n">
-        <v>0.137</v>
+        <v>0.136</v>
       </c>
       <c r="I11" t="n">
         <v>0.004</v>
       </c>
       <c r="J11" t="n">
-        <v>0.137</v>
+        <v>0.136</v>
       </c>
       <c r="K11" t="n">
         <v>0.064</v>
       </c>
       <c r="L11" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="M11" t="n">
-        <v>0.044</v>
+        <v>0.049</v>
       </c>
       <c r="N11" t="n">
-        <v>0.284</v>
+        <v>0.283</v>
       </c>
       <c r="O11" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1078,43 +1078,43 @@
         <v>0.135</v>
       </c>
       <c r="C12" t="n">
-        <v>0.093</v>
+        <v>0.095</v>
       </c>
       <c r="D12" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="E12" t="n">
         <v>0.082</v>
       </c>
       <c r="F12" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="G12" t="n">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="I12" t="n">
         <v>0.075</v>
       </c>
       <c r="J12" t="n">
-        <v>0.182</v>
+        <v>0.18</v>
       </c>
       <c r="K12" t="n">
         <v>0.026</v>
       </c>
       <c r="L12" t="n">
-        <v>0.398</v>
+        <v>0.394</v>
       </c>
       <c r="M12" t="n">
-        <v>0.205</v>
+        <v>0.206</v>
       </c>
       <c r="N12" t="n">
-        <v>0.256</v>
+        <v>0.257</v>
       </c>
       <c r="O12" t="n">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1137,37 +1137,37 @@
         <v>0.073</v>
       </c>
       <c r="E13" t="n">
-        <v>0.192</v>
+        <v>0.194</v>
       </c>
       <c r="F13" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="G13" t="n">
         <v>0.002</v>
       </c>
       <c r="H13" t="n">
-        <v>0.18</v>
+        <v>0.179</v>
       </c>
       <c r="I13" t="n">
-        <v>0.143</v>
+        <v>0.145</v>
       </c>
       <c r="J13" t="n">
         <v>0.079</v>
       </c>
       <c r="K13" t="n">
-        <v>0.168</v>
+        <v>0.167</v>
       </c>
       <c r="L13" t="n">
         <v>0.019</v>
       </c>
       <c r="M13" t="n">
-        <v>0.264</v>
+        <v>0.263</v>
       </c>
       <c r="N13" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O13" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1181,16 +1181,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="C14" t="n">
-        <v>0.182</v>
+        <v>0.183</v>
       </c>
       <c r="D14" t="n">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="E14" t="n">
-        <v>0.217</v>
+        <v>0.221</v>
       </c>
       <c r="F14" t="n">
         <v>0.033</v>
@@ -1199,22 +1199,22 @@
         <v>0.106</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.076</v>
+        <v>0.074</v>
       </c>
       <c r="J14" t="n">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.106</v>
+        <v>0.104</v>
       </c>
       <c r="L14" t="n">
-        <v>0.265</v>
+        <v>0.26</v>
       </c>
       <c r="M14" t="n">
-        <v>0.288</v>
+        <v>0.293</v>
       </c>
       <c r="N14" t="n">
         <v>0.172</v>
@@ -1234,25 +1234,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="D15" t="n">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
       <c r="E15" t="n">
         <v>0.05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="H15" t="n">
-        <v>0.149</v>
+        <v>0.148</v>
       </c>
       <c r="I15" t="n">
         <v>0.103</v>
@@ -1261,7 +1261,7 @@
         <v>0.06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
       <c r="L15" t="n">
         <v>0.11</v>
@@ -1293,10 +1293,10 @@
         <v>0.143</v>
       </c>
       <c r="D16" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="E16" t="n">
-        <v>0.092</v>
+        <v>0.094</v>
       </c>
       <c r="F16" t="n">
         <v>0.126</v>
@@ -1305,7 +1305,7 @@
         <v>0.091</v>
       </c>
       <c r="H16" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="I16" t="n">
         <v>0.14</v>
@@ -1340,19 +1340,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="C17" t="n">
         <v>0.017</v>
       </c>
       <c r="D17" t="n">
-        <v>0.203</v>
+        <v>0.202</v>
       </c>
       <c r="E17" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="F17" t="n">
-        <v>0.103</v>
+        <v>0.106</v>
       </c>
       <c r="G17" t="n">
         <v>0.056</v>
